--- a/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
+++ b/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="60">
   <si>
     <t xml:space="preserve">File Name </t>
   </si>
@@ -27,13 +27,7 @@
     <t>BIIRULES-UBL-T10.xsl</t>
   </si>
   <si>
-    <t xml:space="preserve">[BII2-T10-R026] x 1  </t>
-  </si>
-  <si>
     <t>T10-0001-BII04 minimal invoice_errorVAT.xml</t>
-  </si>
-  <si>
-    <t>[BII2-T10-R030] x 1 [BII2-T10-R045] x 1</t>
   </si>
   <si>
     <t>T10-0002-minimal VAT invoice_ErrorVAT.xml</t>
@@ -213,6 +207,27 @@
   </si>
   <si>
     <t>EUGEN-T10-R026] x 2 EUGEN-T10-R046</t>
+  </si>
+  <si>
+    <t>PEPPOL</t>
+  </si>
+  <si>
+    <t>SCHEMATRON</t>
+  </si>
+  <si>
+    <t>DOC. TYPE</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>TEST-LINES</t>
+  </si>
+  <si>
+    <t>[BII2-T10-R026]</t>
+  </si>
+  <si>
+    <t>[BII2-T10-R030] [BII2-T10-R045]</t>
   </si>
 </sst>
 </file>
@@ -286,9 +301,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -326,7 +341,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -398,7 +413,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -572,432 +587,620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="str">
+        <f>A2 &amp; "; " &amp; B2 &amp; "; " &amp; C2 &amp; "; " &amp; F2</f>
+        <v>PEPPOL; T10-0001-BII04 minimal invoice_errorVAT.xml; T10; [BII2-T10-R026]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="str">
+        <f>A3 &amp; "; " &amp; B3 &amp; "; " &amp; C3 &amp; "; " &amp; F3</f>
+        <v>PEPPOL; T10-0002-minimal VAT invoice_ErrorVAT.xml; T10; [BII2-T10-R030] [BII2-T10-R045]</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="str">
+        <f>A4 &amp; "; " &amp; B4 &amp; "; " &amp; C4 &amp; "; " &amp; F4</f>
+        <v xml:space="preserve">PEPPOL; T10-0003-full core data_OK.xml; T10; </v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="str">
+        <f>A5 &amp; "; " &amp; B5 &amp; "; " &amp; C5 &amp; "; " &amp; F5</f>
+        <v xml:space="preserve">PEPPOL; T10-0004-example common data_OK.xml; T10; </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="F28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
+      <c r="G29" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
+++ b/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
@@ -200,9 +200,6 @@
     <t>[BII2-T10-R030] [BII2-T10-R045]</t>
   </si>
   <si>
-    <t>EUGEN-T10-R026] [EUGEN-T10-R046]</t>
-  </si>
-  <si>
     <t>[CL-T10-R001] [CL-T10-R002] [CL-T10-R004] [CL-T10-R003] [CL-[T10-R007] [CL-T10-R006] [OP-T10-R004]</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>[BII2-T10-R047] [BII2-T10-R048] [BII2-T10-R045]</t>
+  </si>
+  <si>
+    <t>[EUGEN-T10-R026] [EUGEN-T10-R046]</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I2:I29"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +588,7 @@
     <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -723,7 +723,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>5</v>
@@ -747,14 +747,14 @@
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0006-MultipleCurrencies_error.xml; T10; EUGEN-T10-R026] [EUGEN-T10-R046]</v>
+        <v>PEPPOL; T10-0006-MultipleCurrencies_error.xml; T10; [EUGEN-T10-R026] [EUGEN-T10-R046]</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>24</v>
@@ -1110,7 +1110,7 @@
         <v>37</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>5</v>
@@ -1190,7 +1190,7 @@
         <v>37</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>5</v>
@@ -1262,7 +1262,7 @@
         <v>37</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>5</v>

--- a/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
+++ b/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
@@ -72,6 +72,123 @@
     <t xml:space="preserve">Errors </t>
   </si>
   <si>
+    <t>EUGEN-T10-R041</t>
+  </si>
+  <si>
+    <t>T10-0011_EmptyElements_errors.xml</t>
+  </si>
+  <si>
+    <t>T10-0012-line_errors.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BII2-T10-R017
+ BII2-T10-R018
+ BII2-T10-R019
+ BII2-T10-R033
+ CL-T10-R003</t>
+  </si>
+  <si>
+    <t>T10-0013-negative_invoice_errors.xml</t>
+  </si>
+  <si>
+    <t>EUGEN-T10-R004</t>
+  </si>
+  <si>
+    <t>T10-0014-ErrorRounding_BIC_IBAN.xml</t>
+  </si>
+  <si>
+    <t>T10-0015-simpleINV_OK.xml</t>
+  </si>
+  <si>
+    <t>T10-0016-Valuta-EUR_Warn.xml</t>
+  </si>
+  <si>
+    <t>T10-0017-Standard_PEPPOL BIS_Warn.xml</t>
+  </si>
+  <si>
+    <t>T10-0018-OK2VATRatesSimple_OK.xml</t>
+  </si>
+  <si>
+    <t>T10-0019-RichContent_OK.xml</t>
+  </si>
+  <si>
+    <t>T10-0020-CrossBorder_OK.xml</t>
+  </si>
+  <si>
+    <t>T10-0021-EUVATNotAppicable_OK.xml</t>
+  </si>
+  <si>
+    <t>T10-0022-FullSpec_OK.xml</t>
+  </si>
+  <si>
+    <t>T10-0023-ErrorUOM.xml</t>
+  </si>
+  <si>
+    <t>T10-0024-ManyErrors.xml</t>
+  </si>
+  <si>
+    <t>T10-0025-CalcErrors.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIIRULES-UBL-T10.xsl </t>
+  </si>
+  <si>
+    <t>T10-0026-ReverseChargeERR.xml</t>
+  </si>
+  <si>
+    <t>T10-0027-MissVATCategory.xml</t>
+  </si>
+  <si>
+    <t>BII2-T10-R026</t>
+  </si>
+  <si>
+    <t>T10-0028-MissExemptReasonERR.xml</t>
+  </si>
+  <si>
+    <t>BII2-T10-R045</t>
+  </si>
+  <si>
+    <t>T10-0029-MissExemptReasonandVATOnLine.xml</t>
+  </si>
+  <si>
+    <t>[EUGEN-T10-R040]</t>
+  </si>
+  <si>
+    <t>PEPPOL</t>
+  </si>
+  <si>
+    <t>SCHEMATRON</t>
+  </si>
+  <si>
+    <t>DOC. TYPE</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>TEST-LINES</t>
+  </si>
+  <si>
+    <t>[BII2-T10-R026]</t>
+  </si>
+  <si>
+    <t>[BII2-T10-R030]
+[BII2-T10-R045]</t>
+  </si>
+  <si>
+    <t>[EUGEN-T10-R026]
+[EUGEN-T10-R046]</t>
+  </si>
+  <si>
+    <t>[CL-T10-R001] 
+[CL-T10-R002] 
+[CL-T10-R004] 
+[CL-T10-R003] 
+[CL-[T10-R007] 
+[CL-T10-R006]
+[OP-T10-R004]</t>
+  </si>
+  <si>
     <t>BII2-T10-R010
 BII2-T10-R011
 BII2-T10-R012
@@ -79,143 +196,37 @@
 BII2-T10-R039
 BII2-T10-R044
 BII2-T10-R051
-EUGEN-T10-R024 x 2
+EUGEN-T10-R024
 EUGEN-T10-R043</t>
   </si>
   <si>
-    <t>EUGEN-T10-R041</t>
-  </si>
-  <si>
-    <t>T10-0011_EmptyElements_errors.xml</t>
-  </si>
-  <si>
-    <t>T10-0012-line_errors.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BII2-T10-R017
- BII2-T10-R018
- BII2-T10-R019
- BII2-T10-R033
- CL-T10-R003</t>
-  </si>
-  <si>
-    <t>T10-0013-negative_invoice_errors.xml</t>
-  </si>
-  <si>
-    <t>EUGEN-T10-R004</t>
-  </si>
-  <si>
-    <t>T10-0014-ErrorRounding_BIC_IBAN.xml</t>
-  </si>
-  <si>
-    <t>T10-0015-simpleINV_OK.xml</t>
-  </si>
-  <si>
-    <t>T10-0016-Valuta-EUR_Warn.xml</t>
-  </si>
-  <si>
-    <t>T10-0017-Standard_PEPPOL BIS_Warn.xml</t>
-  </si>
-  <si>
-    <t>T10-0018-OK2VATRatesSimple_OK.xml</t>
-  </si>
-  <si>
-    <t>T10-0019-RichContent_OK.xml</t>
-  </si>
-  <si>
-    <t>T10-0020-CrossBorder_OK.xml</t>
-  </si>
-  <si>
-    <t>T10-0021-EUVATNotAppicable_OK.xml</t>
-  </si>
-  <si>
-    <t>T10-0022-FullSpec_OK.xml</t>
-  </si>
-  <si>
-    <t>T10-0023-ErrorUOM.xml</t>
-  </si>
-  <si>
-    <t>T10-0024-ManyErrors.xml</t>
-  </si>
-  <si>
-    <t>T10-0025-CalcErrors.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIIRULES-UBL-T10.xsl </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII2-T10-R051
+    <t>[BII2-T10-R042]
+[BII2-T10-R040]</t>
+  </si>
+  <si>
+    <t>[BII2-T10-R018] 
+[BII2-T10-R019]</t>
+  </si>
+  <si>
+    <t>BII2-T10-R030
+BII2-T10-R045
+BII2-T10-R018
+BII2-T10-R019</t>
+  </si>
+  <si>
+    <t>BII2-T10-R051
 BII2-T10-R052
-BII2-T10-R018 x 5
-BII2-T10-R019 x 5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BII2-T10-R030
-BII2-T10-R045
-BII2-T10-R018 x 5
-BII2-T10-R019 x 5
-</t>
-  </si>
-  <si>
-    <t>T10-0026-ReverseChargeERR.xml</t>
-  </si>
-  <si>
-    <t>T10-0027-MissVATCategory.xml</t>
-  </si>
-  <si>
-    <t>BII2-T10-R026</t>
-  </si>
-  <si>
-    <t>T10-0028-MissExemptReasonERR.xml</t>
-  </si>
-  <si>
-    <t>BII2-T10-R045</t>
-  </si>
-  <si>
-    <t>T10-0029-MissExemptReasonandVATOnLine.xml</t>
-  </si>
-  <si>
-    <t>[EUGEN-T10-R040]</t>
-  </si>
-  <si>
-    <t>PEPPOL</t>
-  </si>
-  <si>
-    <t>SCHEMATRON</t>
-  </si>
-  <si>
-    <t>DOC. TYPE</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>TEST-LINES</t>
-  </si>
-  <si>
-    <t>[BII2-T10-R026]</t>
-  </si>
-  <si>
-    <t>[BII2-T10-R030] [BII2-T10-R045]</t>
-  </si>
-  <si>
-    <t>[CL-T10-R001] [CL-T10-R002] [CL-T10-R004] [CL-T10-R003] [CL-[T10-R007] [CL-T10-R006] [OP-T10-R004]</t>
-  </si>
-  <si>
-    <t>[BII2-T10-R042] [BII2-T10-R040]</t>
-  </si>
-  <si>
-    <t>[BII2-T10-R018] [BII2-T10-R019]</t>
-  </si>
-  <si>
-    <t>[BII2-T10-R045] [BII2-T10-R046]</t>
-  </si>
-  <si>
-    <t>[BII2-T10-R047] [BII2-T10-R048] [BII2-T10-R045]</t>
-  </si>
-  <si>
-    <t>[EUGEN-T10-R026] [EUGEN-T10-R046]</t>
+BII2-T10-R018
+BII2-T10-R019</t>
+  </si>
+  <si>
+    <t>[BII2-T10-R047] 
+[BII2-T10-R048] 
+[BII2-T10-R045]</t>
+  </si>
+  <si>
+    <t>[BII2-T10-R045] 
+[BII2-T10-R046]</t>
   </si>
 </sst>
 </file>
@@ -578,7 +589,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +599,7 @@
     <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -597,13 +608,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -616,66 +627,66 @@
         <v>10</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>A2 &amp; "; " &amp; B2 &amp; "; " &amp; C2 &amp; "; " &amp; F2</f>
+        <f>A2 &amp; "; " &amp; B2 &amp; "; " &amp; C2 &amp; "; " &amp; SUBSTITUTE(F2,CHAR(10), " ")</f>
         <v>PEPPOL; T10-0001-BII04 minimal invoice_errorVAT.xml; T10; [BII2-T10-R026]</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f t="shared" ref="I3:I29" si="0">A3 &amp; "; " &amp; B3 &amp; "; " &amp; C3 &amp; "; " &amp; F3</f>
+        <f t="shared" ref="I3:I29" si="0">A3 &amp; "; " &amp; B3 &amp; "; " &amp; C3 &amp; "; " &amp; SUBSTITUTE(F3,CHAR(10), " ")</f>
         <v>PEPPOL; T10-0002-minimal VAT invoice_ErrorVAT.xml; T10; [BII2-T10-R030] [BII2-T10-R045]</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -690,13 +701,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
@@ -711,46 +722,46 @@
     </row>
     <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0005-MultipleSchematronErrors.xml; T10; [CL-T10-R001] [CL-T10-R002] [CL-T10-R004] [CL-T10-R003] [CL-[T10-R007] [CL-T10-R006] [OP-T10-R004]</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>PEPPOL; T10-0005-MultipleSchematronErrors.xml; T10; [CL-T10-R001]  [CL-T10-R002]  [CL-T10-R004]  [CL-T10-R003]  [CL-[T10-R007]  [CL-T10-R006] [OP-T10-R004]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -759,13 +770,13 @@
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -780,13 +791,13 @@
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -801,13 +812,13 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -823,75 +834,63 @@
         <v>PEPPOL; T10-0010-B2C_error.xml; T10; OP-T10-R004</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0011_EmptyElements_errors.xml; T10; BII2-T10-R010
-BII2-T10-R011
-BII2-T10-R012
-BII2-T10-R013
-BII2-T10-R039
-BII2-T10-R044
-BII2-T10-R051
-EUGEN-T10-R024 x 2
-EUGEN-T10-R043</v>
+        <v>PEPPOL; T10-0011_EmptyElements_errors.xml; T10; BII2-T10-R010 BII2-T10-R011 BII2-T10-R012 BII2-T10-R013 BII2-T10-R039 BII2-T10-R044 BII2-T10-R051 EUGEN-T10-R024 EUGEN-T10-R043</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0012-line_errors.xml; T10;  BII2-T10-R017
- BII2-T10-R018
- BII2-T10-R019
- BII2-T10-R033
- CL-T10-R003</v>
+        <v>PEPPOL; T10-0012-line_errors.xml; T10;  BII2-T10-R017  BII2-T10-R018  BII2-T10-R019  BII2-T10-R033  CL-T10-R003</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -906,22 +905,22 @@
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -930,13 +929,13 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -951,19 +950,19 @@
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -972,13 +971,13 @@
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
@@ -993,13 +992,13 @@
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
@@ -1014,13 +1013,13 @@
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
@@ -1035,13 +1034,13 @@
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
@@ -1056,13 +1055,13 @@
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>9</v>
@@ -1077,13 +1076,13 @@
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>9</v>
@@ -1098,96 +1097,88 @@
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PEPPOL; T10-0023-ErrorUOM.xml; T10; [BII2-T10-R018]  [BII2-T10-R019]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0023-ErrorUOM.xml; T10; [BII2-T10-R018] [BII2-T10-R019]</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PEPPOL; T10-0024-ManyErrors.xml; T10; BII2-T10-R030 BII2-T10-R045 BII2-T10-R018 BII2-T10-R019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0024-ManyErrors.xml; T10; BII2-T10-R030
-BII2-T10-R045
-BII2-T10-R018 x 5
-BII2-T10-R019 x 5
-</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0025-CalcErrors.xml; T10; BII2-T10-R051
-BII2-T10-R052
-BII2-T10-R018 x 5
-BII2-T10-R019 x 5
-</v>
+        <v>PEPPOL; T10-0025-CalcErrors.xml; T10; BII2-T10-R051 BII2-T10-R052 BII2-T10-R018 BII2-T10-R019</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>58</v>
@@ -1197,24 +1188,24 @@
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0026-ReverseChargeERR.xml; T10; [BII2-T10-R047] [BII2-T10-R048] [BII2-T10-R045]</v>
+        <v>PEPPOL; T10-0026-ReverseChargeERR.xml; T10; [BII2-T10-R047]  [BII2-T10-R048]  [BII2-T10-R045]</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>5</v>
@@ -1226,19 +1217,19 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>5</v>
@@ -1250,26 +1241,26 @@
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0029-MissExemptReasonandVATOnLine.xml; T10; [BII2-T10-R045] [BII2-T10-R046]</v>
+        <v>PEPPOL; T10-0029-MissExemptReasonandVATOnLine.xml; T10; [BII2-T10-R045]  [BII2-T10-R046]</v>
       </c>
     </row>
   </sheetData>

--- a/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
+++ b/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="59">
   <si>
     <t xml:space="preserve">File Name </t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>T10-0002-minimal VAT invoice_ErrorVAT.xml</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>T10-0003-full core data_OK.xml</t>
@@ -589,7 +586,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,659 +605,596 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f>A2 &amp; "; " &amp; B2 &amp; "; " &amp; C2 &amp; "; " &amp; SUBSTITUTE(F2,CHAR(10), " ")</f>
-        <v>PEPPOL; T10-0001-BII04 minimal invoice_errorVAT.xml; T10; [BII2-T10-R026]</v>
+        <f>A2 &amp; "; " &amp; B2 &amp; "; " &amp; C2 &amp; "; " &amp; SUBSTITUTE(F2,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G2,CHAR(10), " ")</f>
+        <v xml:space="preserve">PEPPOL; T10-0001-BII04 minimal invoice_errorVAT.xml; T10; [BII2-T10-R026] </v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f t="shared" ref="I3:I29" si="0">A3 &amp; "; " &amp; B3 &amp; "; " &amp; C3 &amp; "; " &amp; SUBSTITUTE(F3,CHAR(10), " ")</f>
-        <v>PEPPOL; T10-0002-minimal VAT invoice_ErrorVAT.xml; T10; [BII2-T10-R030] [BII2-T10-R045]</v>
+        <f t="shared" ref="I3:I29" si="0">A3 &amp; "; " &amp; B3 &amp; "; " &amp; C3 &amp; "; " &amp; SUBSTITUTE(F3,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G3,CHAR(10), " ")</f>
+        <v xml:space="preserve">PEPPOL; T10-0002-minimal VAT invoice_ErrorVAT.xml; T10; [BII2-T10-R030] [BII2-T10-R045] </v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0003-full core data_OK.xml; T10; </v>
+        <v xml:space="preserve">PEPPOL; T10-0003-full core data_OK.xml; T10;  </v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0004-example common data_OK.xml; T10; </v>
+        <v xml:space="preserve">PEPPOL; T10-0004-example common data_OK.xml; T10;  </v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0005-MultipleSchematronErrors.xml; T10; [CL-T10-R001]  [CL-T10-R002]  [CL-T10-R004]  [CL-T10-R003]  [CL-[T10-R007]  [CL-T10-R006] [OP-T10-R004]</v>
+        <v xml:space="preserve">PEPPOL; T10-0005-MultipleSchematronErrors.xml; T10; [CL-T10-R001]  [CL-T10-R002]  [CL-T10-R004]  [CL-T10-R003]  [CL-[T10-R007]  [CL-T10-R006] [OP-T10-R004] </v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0006-MultipleCurrencies_error.xml; T10; [EUGEN-T10-R026] [EUGEN-T10-R046]</v>
+        <v>PEPPOL; T10-0006-MultipleCurrencies_error.xml; T10; [EUGEN-T10-R026] [EUGEN-T10-R046] [EUGEN-T10-R040]</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0007-RoundingAmount_OK.xml; T10; </v>
+        <v xml:space="preserve">PEPPOL; T10-0007-RoundingAmount_OK.xml; T10;  </v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0009-FullSpecINV.xml; T10; </v>
+        <v xml:space="preserve">PEPPOL; T10-0009-FullSpecINV.xml; T10;  </v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0010-B2C_error.xml; T10; OP-T10-R004</v>
+        <v>PEPPOL; T10-0010-B2C_error.xml; T10; OP-T10-R004 EUGEN-T10-R040</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0011_EmptyElements_errors.xml; T10; BII2-T10-R010 BII2-T10-R011 BII2-T10-R012 BII2-T10-R013 BII2-T10-R039 BII2-T10-R044 BII2-T10-R051 EUGEN-T10-R024 EUGEN-T10-R043</v>
+        <v>PEPPOL; T10-0011_EmptyElements_errors.xml; T10; BII2-T10-R010 BII2-T10-R011 BII2-T10-R012 BII2-T10-R013 BII2-T10-R039 BII2-T10-R044 BII2-T10-R051 EUGEN-T10-R024 EUGEN-T10-R043 EUGEN-T10-R041</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0012-line_errors.xml; T10;  BII2-T10-R017  BII2-T10-R018  BII2-T10-R019  BII2-T10-R033  CL-T10-R003</v>
+        <v>PEPPOL; T10-0012-line_errors.xml; T10;  BII2-T10-R017  BII2-T10-R018  BII2-T10-R019  BII2-T10-R033  CL-T10-R003 EUGEN-T10-R041</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0013-negative_invoice_errors.xml; T10; </v>
+        <v xml:space="preserve">PEPPOL; T10-0013-negative_invoice_errors.xml; T10;  </v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0014-ErrorRounding_BIC_IBAN.xml; T10; [BII2-T10-R042] [BII2-T10-R040]</v>
+        <v>PEPPOL; T10-0014-ErrorRounding_BIC_IBAN.xml; T10; [BII2-T10-R042] [BII2-T10-R040] EUGEN-T10-R004</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0015-simpleINV_OK.xml; T10; </v>
+        <v xml:space="preserve">PEPPOL; T10-0015-simpleINV_OK.xml; T10;  </v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0016-Valuta-EUR_Warn.xml; T10; </v>
+        <v>PEPPOL; T10-0016-Valuta-EUR_Warn.xml; T10;  EUGEN-T10-R041</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0017-Standard_PEPPOL BIS_Warn.xml; T10; </v>
+        <v>PEPPOL; T10-0017-Standard_PEPPOL BIS_Warn.xml; T10;  EUGEN-T10-R040</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0018-OK2VATRatesSimple_OK.xml; T10; </v>
+        <v xml:space="preserve">PEPPOL; T10-0018-OK2VATRatesSimple_OK.xml; T10;  </v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0019-RichContent_OK.xml; T10; </v>
+        <v xml:space="preserve">PEPPOL; T10-0019-RichContent_OK.xml; T10;  </v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0020-CrossBorder_OK.xml; T10; </v>
+        <v xml:space="preserve">PEPPOL; T10-0020-CrossBorder_OK.xml; T10;  </v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0021-EUVATNotAppicable_OK.xml; T10; </v>
+        <v xml:space="preserve">PEPPOL; T10-0021-EUVATNotAppicable_OK.xml; T10;  </v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0022-FullSpec_OK.xml; T10; </v>
+        <v xml:space="preserve">PEPPOL; T10-0022-FullSpec_OK.xml; T10;  </v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0023-ErrorUOM.xml; T10; [BII2-T10-R018]  [BII2-T10-R019]</v>
+        <v xml:space="preserve">PEPPOL; T10-0023-ErrorUOM.xml; T10; [BII2-T10-R018]  [BII2-T10-R019] </v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0024-ManyErrors.xml; T10; BII2-T10-R030 BII2-T10-R045 BII2-T10-R018 BII2-T10-R019</v>
+        <v xml:space="preserve">PEPPOL; T10-0024-ManyErrors.xml; T10; BII2-T10-R030 BII2-T10-R045 BII2-T10-R018 BII2-T10-R019 </v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0025-CalcErrors.xml; T10; BII2-T10-R051 BII2-T10-R052 BII2-T10-R018 BII2-T10-R019</v>
+        <v xml:space="preserve">PEPPOL; T10-0025-CalcErrors.xml; T10; BII2-T10-R051 BII2-T10-R052 BII2-T10-R018 BII2-T10-R019 </v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0026-ReverseChargeERR.xml; T10; [BII2-T10-R047]  [BII2-T10-R048]  [BII2-T10-R045]</v>
+        <v xml:space="preserve">PEPPOL; T10-0026-ReverseChargeERR.xml; T10; [BII2-T10-R047]  [BII2-T10-R048]  [BII2-T10-R045] </v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0027-MissVATCategory.xml; T10; BII2-T10-R026</v>
+        <v xml:space="preserve">PEPPOL; T10-0027-MissVATCategory.xml; T10; BII2-T10-R026 </v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0028-MissExemptReasonERR.xml; T10; BII2-T10-R045</v>
+        <v xml:space="preserve">PEPPOL; T10-0028-MissExemptReasonERR.xml; T10; BII2-T10-R045 </v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0029-MissExemptReasonandVATOnLine.xml; T10; [BII2-T10-R045]  [BII2-T10-R046]</v>
+        <v xml:space="preserve">PEPPOL; T10-0029-MissExemptReasonandVATOnLine.xml; T10; [BII2-T10-R045]  [BII2-T10-R046] </v>
       </c>
     </row>
   </sheetData>

--- a/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
+++ b/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
@@ -163,9 +163,6 @@
     <t>T10</t>
   </si>
   <si>
-    <t>TEST-LINES</t>
-  </si>
-  <si>
     <t>[BII2-T10-R026]</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   <si>
     <t>[BII2-T10-R045] 
 [BII2-T10-R046]</t>
+  </si>
+  <si>
+    <t>TEST-LINES for the test-config.txt file</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,7 @@
     <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60.42578125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -624,7 +624,7 @@
         <v>9</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>A2 &amp; "; " &amp; B2 &amp; "; " &amp; C2 &amp; "; " &amp; SUBSTITUTE(F2,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G2,CHAR(10), " ")</f>
@@ -662,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" ref="I3:I29" si="0">A3 &amp; "; " &amp; B3 &amp; "; " &amp; C3 &amp; "; " &amp; SUBSTITUTE(F3,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G3,CHAR(10), " ")</f>
@@ -719,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>42</v>
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
@@ -890,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>22</v>
@@ -1064,7 +1064,7 @@
         <v>35</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1085,7 +1085,7 @@
         <v>35</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1106,7 +1106,7 @@
         <v>35</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1127,7 +1127,7 @@
         <v>35</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1190,7 +1190,7 @@
         <v>35</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="0"/>

--- a/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
+++ b/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="62">
   <si>
     <t xml:space="preserve">File Name </t>
   </si>
@@ -151,9 +151,6 @@
     <t>[EUGEN-T10-R040]</t>
   </si>
   <si>
-    <t>PEPPOL</t>
-  </si>
-  <si>
     <t>SCHEMATRON</t>
   </si>
   <si>
@@ -172,6 +169,44 @@
   <si>
     <t>[EUGEN-T10-R026]
 [EUGEN-T10-R046]</t>
+  </si>
+  <si>
+    <t>[BII2-T10-R042]
+[BII2-T10-R040]</t>
+  </si>
+  <si>
+    <t>[BII2-T10-R018] 
+[BII2-T10-R019]</t>
+  </si>
+  <si>
+    <t>BII2-T10-R030
+BII2-T10-R045
+BII2-T10-R018
+BII2-T10-R019</t>
+  </si>
+  <si>
+    <t>BII2-T10-R051
+BII2-T10-R052
+BII2-T10-R018
+BII2-T10-R019</t>
+  </si>
+  <si>
+    <t>[BII2-T10-R047] 
+[BII2-T10-R048] 
+[BII2-T10-R045]</t>
+  </si>
+  <si>
+    <t>[BII2-T10-R045] 
+[BII2-T10-R046]</t>
+  </si>
+  <si>
+    <t>TEST-LINES for the test-config.txt file</t>
+  </si>
+  <si>
+    <t>OPENPEPPOL</t>
+  </si>
+  <si>
+    <t>BIIRULES</t>
   </si>
   <si>
     <t>[CL-T10-R001] 
@@ -179,8 +214,10 @@
 [CL-T10-R004] 
 [CL-T10-R003] 
 [CL-[T10-R007] 
-[CL-T10-R006]
-[OP-T10-R004]</t>
+[CL-T10-R006]</t>
+  </si>
+  <si>
+    <t>[OP-T10-R004]</t>
   </si>
   <si>
     <t>BII2-T10-R010
@@ -189,41 +226,11 @@
 BII2-T10-R013
 BII2-T10-R039
 BII2-T10-R044
-BII2-T10-R051
-EUGEN-T10-R024
+BII2-T10-R051</t>
+  </si>
+  <si>
+    <t>EUGEN-T10-R024
 EUGEN-T10-R043</t>
-  </si>
-  <si>
-    <t>[BII2-T10-R042]
-[BII2-T10-R040]</t>
-  </si>
-  <si>
-    <t>[BII2-T10-R018] 
-[BII2-T10-R019]</t>
-  </si>
-  <si>
-    <t>BII2-T10-R030
-BII2-T10-R045
-BII2-T10-R018
-BII2-T10-R019</t>
-  </si>
-  <si>
-    <t>BII2-T10-R051
-BII2-T10-R052
-BII2-T10-R018
-BII2-T10-R019</t>
-  </si>
-  <si>
-    <t>[BII2-T10-R047] 
-[BII2-T10-R048] 
-[BII2-T10-R045]</t>
-  </si>
-  <si>
-    <t>[BII2-T10-R045] 
-[BII2-T10-R046]</t>
-  </si>
-  <si>
-    <t>TEST-LINES for the test-config.txt file</t>
   </si>
 </sst>
 </file>
@@ -582,11 +589,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,13 +612,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -624,577 +631,678 @@
         <v>9</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="str">
         <f>A2 &amp; "; " &amp; B2 &amp; "; " &amp; C2 &amp; "; " &amp; SUBSTITUTE(F2,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G2,CHAR(10), " ")</f>
-        <v xml:space="preserve">PEPPOL; T10-0001-BII04 minimal invoice_errorVAT.xml; T10; [BII2-T10-R026] </v>
+        <v xml:space="preserve">BIIRULES; T10-0001-BII04 minimal invoice_errorVAT.xml; T10; [BII2-T10-R026] </v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f t="shared" ref="I3:I29" si="0">A3 &amp; "; " &amp; B3 &amp; "; " &amp; C3 &amp; "; " &amp; SUBSTITUTE(F3,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G3,CHAR(10), " ")</f>
-        <v xml:space="preserve">PEPPOL; T10-0002-minimal VAT invoice_ErrorVAT.xml; T10; [BII2-T10-R030] [BII2-T10-R045] </v>
+        <f t="shared" ref="I3:I34" si="0">A3 &amp; "; " &amp; B3 &amp; "; " &amp; C3 &amp; "; " &amp; SUBSTITUTE(F3,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G3,CHAR(10), " ")</f>
+        <v xml:space="preserve">BIIRULES; T10-0002-minimal VAT invoice_ErrorVAT.xml; T10; [BII2-T10-R030] [BII2-T10-R045] </v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0003-full core data_OK.xml; T10;  </v>
+        <v xml:space="preserve">BIIRULES; T10-0003-full core data_OK.xml; T10;  </v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0004-example common data_OK.xml; T10;  </v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I5" si="1">A5 &amp; "; " &amp; B5 &amp; "; " &amp; C5 &amp; "; " &amp; SUBSTITUTE(F5,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G5,CHAR(10), " ")</f>
+        <v xml:space="preserve">OPENPEPPOL; T10-0003-full core data_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0004-example common data_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0005-MultipleSchematronErrors.xml; T10; [CL-T10-R001]  [CL-T10-R002]  [CL-T10-R004]  [CL-T10-R003]  [CL-[T10-R007]  [CL-T10-R006] [OP-T10-R004] </v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0006-MultipleCurrencies_error.xml; T10; [EUGEN-T10-R026] [EUGEN-T10-R046] [EUGEN-T10-R040]</v>
+        <v xml:space="preserve">BIIRULES; T10-0005-MultipleSchematronErrors.xml; T10; [CL-T10-R001]  [CL-T10-R002]  [CL-T10-R004]  [CL-T10-R003]  [CL-[T10-R007]  [CL-T10-R006] </v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="I8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0007-RoundingAmount_OK.xml; T10;  </v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I8" si="2">A8 &amp; "; " &amp; B8 &amp; "; " &amp; C8 &amp; "; " &amp; SUBSTITUTE(F8,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G8,CHAR(10), " ")</f>
+        <v xml:space="preserve">OPENPEPPOL; T10-0005-MultipleSchematronErrors.xml; T10; [OP-T10-R004] </v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0009-FullSpecINV.xml; T10;  </v>
+        <v>OPENPEPPOL; T10-0006-MultipleCurrencies_error.xml; T10; [EUGEN-T10-R026] [EUGEN-T10-R046] [EUGEN-T10-R040]</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0007-RoundingAmount_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0009-FullSpecINV.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0010-B2C_error.xml; T10; OP-T10-R004 EUGEN-T10-R040</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPENPEPPOL; T10-0010-B2C_error.xml; T10; OP-T10-R004 EUGEN-T10-R040</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0011_EmptyElements_errors.xml; T10; BII2-T10-R010 BII2-T10-R011 BII2-T10-R012 BII2-T10-R013 BII2-T10-R039 BII2-T10-R044 BII2-T10-R051 EUGEN-T10-R024 EUGEN-T10-R043 EUGEN-T10-R041</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0012-line_errors.xml; T10;  BII2-T10-R017  BII2-T10-R018  BII2-T10-R019  BII2-T10-R033  CL-T10-R003 EUGEN-T10-R041</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F13" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0013-negative_invoice_errors.xml; T10;  </v>
+        <v xml:space="preserve">BIIRULES; T10-0011_EmptyElements_errors.xml; T10; BII2-T10-R010 BII2-T10-R011 BII2-T10-R012 BII2-T10-R013 BII2-T10-R039 BII2-T10-R044 BII2-T10-R051 </v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0014-ErrorRounding_BIC_IBAN.xml; T10; [BII2-T10-R042] [BII2-T10-R040] EUGEN-T10-R004</v>
+        <f t="shared" ref="I14" si="3">A14 &amp; "; " &amp; B14 &amp; "; " &amp; C14 &amp; "; " &amp; SUBSTITUTE(F14,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G14,CHAR(10), " ")</f>
+        <v>OPENPEPPOL; T10-0011_EmptyElements_errors.xml; T10;  EUGEN-T10-R041</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0015-simpleINV_OK.xml; T10;  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I15" si="4">A15 &amp; "; " &amp; B15 &amp; "; " &amp; C15 &amp; "; " &amp; SUBSTITUTE(F15,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G15,CHAR(10), " ")</f>
+        <v>OPENPEPPOL; T10-0011_EmptyElements_errors.xml; T10; EUGEN-T10-R024 EUGEN-T10-R043 EUGEN-T10-R041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0016-Valuta-EUR_Warn.xml; T10;  EUGEN-T10-R041</v>
+        <v>BIIRULES; T10-0012-line_errors.xml; T10;  BII2-T10-R017  BII2-T10-R018  BII2-T10-R019  BII2-T10-R033  CL-T10-R003 EUGEN-T10-R041</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PEPPOL; T10-0017-Standard_PEPPOL BIS_Warn.xml; T10;  EUGEN-T10-R040</v>
+        <v xml:space="preserve">OPENPEPPOL; T10-0013-negative_invoice_errors.xml; T10;  </v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F18" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0018-OK2VATRatesSimple_OK.xml; T10;  </v>
+        <v xml:space="preserve">BIIRULES; T10-0014-ErrorRounding_BIC_IBAN.xml; T10; [BII2-T10-R042] [BII2-T10-R040] </v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0019-RichContent_OK.xml; T10;  </v>
+        <f t="shared" ref="I19" si="5">A19 &amp; "; " &amp; B19 &amp; "; " &amp; C19 &amp; "; " &amp; SUBSTITUTE(F19,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G19,CHAR(10), " ")</f>
+        <v>OPENPEPPOL; T10-0014-ErrorRounding_BIC_IBAN.xml; T10;  EUGEN-T10-R004</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0020-CrossBorder_OK.xml; T10;  </v>
+        <v xml:space="preserve">OPENPEPPOL; T10-0015-simpleINV_OK.xml; T10;  </v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0021-EUVATNotAppicable_OK.xml; T10;  </v>
+        <v>OPENPEPPOL; T10-0016-Valuta-EUR_Warn.xml; T10;  EUGEN-T10-R041</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0022-FullSpec_OK.xml; T10;  </v>
+        <v>OPENPEPPOL; T10-0017-Standard_PEPPOL BIS_Warn.xml; T10;  EUGEN-T10-R040</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0018-OK2VATRatesSimple_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0019-RichContent_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0020-CrossBorder_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0021-EUVATNotAppicable_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0022-FullSpec_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0023-ErrorUOM.xml; T10; [BII2-T10-R018]  [BII2-T10-R019] </v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0024-ManyErrors.xml; T10; BII2-T10-R030 BII2-T10-R045 BII2-T10-R018 BII2-T10-R019 </v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0025-CalcErrors.xml; T10; BII2-T10-R051 BII2-T10-R052 BII2-T10-R018 BII2-T10-R019 </v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0026-ReverseChargeERR.xml; T10; [BII2-T10-R047]  [BII2-T10-R048]  [BII2-T10-R045] </v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0027-MissVATCategory.xml; T10; BII2-T10-R026 </v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0028-MissExemptReasonERR.xml; T10; BII2-T10-R045 </v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">BIIRULES; T10-0023-ErrorUOM.xml; T10; [BII2-T10-R018]  [BII2-T10-R019] </v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0024-ManyErrors.xml; T10; BII2-T10-R030 BII2-T10-R045 BII2-T10-R018 BII2-T10-R019 </v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">PEPPOL; T10-0029-MissExemptReasonandVATOnLine.xml; T10; [BII2-T10-R045]  [BII2-T10-R046] </v>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0025-CalcErrors.xml; T10; BII2-T10-R051 BII2-T10-R052 BII2-T10-R018 BII2-T10-R019 </v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0026-ReverseChargeERR.xml; T10; [BII2-T10-R047]  [BII2-T10-R048]  [BII2-T10-R045] </v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0027-MissVATCategory.xml; T10; BII2-T10-R026 </v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0028-MissExemptReasonERR.xml; T10; BII2-T10-R045 </v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0029-MissExemptReasonandVATOnLine.xml; T10; [BII2-T10-R045]  [BII2-T10-R046] </v>
       </c>
     </row>
   </sheetData>

--- a/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
+++ b/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="63">
   <si>
     <t xml:space="preserve">File Name </t>
   </si>
@@ -220,17 +220,16 @@
     <t>[OP-T10-R004]</t>
   </si>
   <si>
-    <t>BII2-T10-R010
-BII2-T10-R011
-BII2-T10-R012
-BII2-T10-R013
-BII2-T10-R039
+    <t>EUGEN-T10-R024
+EUGEN-T10-R043</t>
+  </si>
+  <si>
+    <t>BIIRULES;T10-0016-Valuta-EUR_Warn.xml;T10</t>
+  </si>
+  <si>
+    <t>BII2-T10-R039
 BII2-T10-R044
 BII2-T10-R051</t>
-  </si>
-  <si>
-    <t>EUGEN-T10-R024
-EUGEN-T10-R043</t>
   </si>
 </sst>
 </file>
@@ -303,9 +302,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kontor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -343,7 +342,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kontor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -415,7 +414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kontor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -589,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +671,7 @@
         <v>47</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f t="shared" ref="I3:I34" si="0">A3 &amp; "; " &amp; B3 &amp; "; " &amp; C3 &amp; "; " &amp; SUBSTITUTE(F3,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G3,CHAR(10), " ")</f>
+        <f t="shared" ref="I3:I47" si="0">A3 &amp; "; " &amp; B3 &amp; "; " &amp; C3 &amp; "; " &amp; SUBSTITUTE(F3,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G3,CHAR(10), " ")</f>
         <v xml:space="preserve">BIIRULES; T10-0002-minimal VAT invoice_ErrorVAT.xml; T10; [BII2-T10-R030] [BII2-T10-R045] </v>
       </c>
     </row>
@@ -696,10 +695,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>45</v>
@@ -708,31 +707,34 @@
         <v>2</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f t="shared" ref="I5" si="1">A5 &amp; "; " &amp; B5 &amp; "; " &amp; C5 &amp; "; " &amp; SUBSTITUTE(F5,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G5,CHAR(10), " ")</f>
-        <v xml:space="preserve">OPENPEPPOL; T10-0003-full core data_OK.xml; T10;  </v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0004-example common data_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">OPENPEPPOL; T10-0004-example common data_OK.xml; T10;  </v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">BIIRULES; T10-0005-MultipleSchematronErrors.xml; T10; [CL-T10-R001]  [CL-T10-R002]  [CL-T10-R004]  [CL-T10-R003]  [CL-[T10-R007]  [CL-T10-R006] </v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -744,32 +746,30 @@
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">BIIRULES; T10-0005-MultipleSchematronErrors.xml; T10; [CL-T10-R001]  [CL-T10-R002]  [CL-T10-R004]  [CL-T10-R003]  [CL-[T10-R007]  [CL-T10-R006] </v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I7:I8" si="1">A7 &amp; "; " &amp; B7 &amp; "; " &amp; C7 &amp; "; " &amp; SUBSTITUTE(F7,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G7,CHAR(10), " ")</f>
+        <v xml:space="preserve">OPENPEPPOL; T10-0005-MultipleSchematronErrors.xml; T10; [OP-T10-R004] </v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="I8" s="1" t="str">
-        <f t="shared" ref="I8" si="2">A8 &amp; "; " &amp; B8 &amp; "; " &amp; C8 &amp; "; " &amp; SUBSTITUTE(F8,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G8,CHAR(10), " ")</f>
-        <v xml:space="preserve">OPENPEPPOL; T10-0005-MultipleSchematronErrors.xml; T10; [OP-T10-R004] </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">BIIRULES; T10-0006-MultipleCurrencies_error.xml; T10;  </v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -809,9 +809,10 @@
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F10" s="2"/>
       <c r="I10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">OPENPEPPOL; T10-0007-RoundingAmount_OK.xml; T10;  </v>
+        <v xml:space="preserve">BIIRULES; T10-0007-RoundingAmount_OK.xml; T10;  </v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -819,7 +820,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>45</v>
@@ -829,15 +830,15 @@
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">OPENPEPPOL; T10-0009-FullSpecINV.xml; T10;  </v>
+        <v xml:space="preserve">OPENPEPPOL; T10-0007-RoundingAmount_OK.xml; T10;  </v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>45</v>
@@ -845,23 +846,17 @@
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>OPENPEPPOL; T10-0010-B2C_error.xml; T10; OP-T10-R004 EUGEN-T10-R040</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">BIIRULES; T10-0009-FullSpecINV.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>45</v>
@@ -869,20 +864,17 @@
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">BIIRULES; T10-0011_EmptyElements_errors.xml; T10; BII2-T10-R010 BII2-T10-R011 BII2-T10-R012 BII2-T10-R013 BII2-T10-R039 BII2-T10-R044 BII2-T10-R051 </v>
+        <v xml:space="preserve">OPENPEPPOL; T10-0009-FullSpecINV.xml; T10;  </v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>45</v>
@@ -890,13 +882,9 @@
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I14" s="1" t="str">
-        <f t="shared" ref="I14" si="3">A14 &amp; "; " &amp; B14 &amp; "; " &amp; C14 &amp; "; " &amp; SUBSTITUTE(F14,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G14,CHAR(10), " ")</f>
-        <v>OPENPEPPOL; T10-0011_EmptyElements_errors.xml; T10;  EUGEN-T10-R041</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0010-B2C_error.xml; T10;  </v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -904,47 +892,44 @@
         <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPENPEPPOL; T10-0010-B2C_error.xml; T10; OP-T10-R004 EUGEN-T10-R040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f t="shared" ref="I15" si="4">A15 &amp; "; " &amp; B15 &amp; "; " &amp; C15 &amp; "; " &amp; SUBSTITUTE(F15,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G15,CHAR(10), " ")</f>
-        <v>OPENPEPPOL; T10-0011_EmptyElements_errors.xml; T10; EUGEN-T10-R024 EUGEN-T10-R043 EUGEN-T10-R041</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>17</v>
+      <c r="F16" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BIIRULES; T10-0012-line_errors.xml; T10;  BII2-T10-R017  BII2-T10-R018  BII2-T10-R019  BII2-T10-R033  CL-T10-R003 EUGEN-T10-R041</v>
+        <v xml:space="preserve">BIIRULES; T10-0011_EmptyElements_errors.xml; T10; BII2-T10-R039 BII2-T10-R044 BII2-T10-R051 </v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -952,7 +937,7 @@
         <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>45</v>
@@ -960,17 +945,23 @@
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">OPENPEPPOL; T10-0013-negative_invoice_errors.xml; T10;  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>OPENPEPPOL; T10-0011_EmptyElements_errors.xml; T10; EUGEN-T10-R024 EUGEN-T10-R043 EUGEN-T10-R041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>45</v>
@@ -979,11 +970,14 @@
         <v>8</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">BIIRULES; T10-0014-ErrorRounding_BIC_IBAN.xml; T10; [BII2-T10-R042] [BII2-T10-R040] </v>
+        <v>BIIRULES; T10-0012-line_errors.xml; T10;  BII2-T10-R017  BII2-T10-R018  BII2-T10-R019  BII2-T10-R033  CL-T10-R003 EUGEN-T10-R041</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -991,7 +985,7 @@
         <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>45</v>
@@ -1001,19 +995,19 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f t="shared" ref="I19" si="5">A19 &amp; "; " &amp; B19 &amp; "; " &amp; C19 &amp; "; " &amp; SUBSTITUTE(F19,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G19,CHAR(10), " ")</f>
-        <v>OPENPEPPOL; T10-0014-ErrorRounding_BIC_IBAN.xml; T10;  EUGEN-T10-R004</v>
+        <f t="shared" si="0"/>
+        <v>OPENPEPPOL; T10-0012-line_errors.xml; T10;  EUGEN-T10-R041</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>45</v>
@@ -1021,9 +1015,10 @@
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F20" s="2"/>
       <c r="I20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">OPENPEPPOL; T10-0015-simpleINV_OK.xml; T10;  </v>
+        <v xml:space="preserve">BIIRULES; T10-0013-negative_invoice_errors.xml; T10;  </v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1031,7 +1026,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>45</v>
@@ -1039,20 +1034,17 @@
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>OPENPEPPOL; T10-0016-Valuta-EUR_Warn.xml; T10;  EUGEN-T10-R041</v>
+        <v xml:space="preserve">OPENPEPPOL; T10-0013-negative_invoice_errors.xml; T10;  </v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>45</v>
@@ -1060,12 +1052,12 @@
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>14</v>
+      <c r="F22" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>OPENPEPPOL; T10-0017-Standard_PEPPOL BIS_Warn.xml; T10;  EUGEN-T10-R040</v>
+        <v xml:space="preserve">BIIRULES; T10-0014-ErrorRounding_BIC_IBAN.xml; T10; [BII2-T10-R042] [BII2-T10-R040] </v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1073,7 +1065,7 @@
         <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>45</v>
@@ -1081,17 +1073,21 @@
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">OPENPEPPOL; T10-0018-OK2VATRatesSimple_OK.xml; T10;  </v>
+        <f t="shared" ref="I23" si="2">A23 &amp; "; " &amp; B23 &amp; "; " &amp; C23 &amp; "; " &amp; SUBSTITUTE(F23,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G23,CHAR(10), " ")</f>
+        <v>OPENPEPPOL; T10-0014-ErrorRounding_BIC_IBAN.xml; T10;  EUGEN-T10-R004</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>45</v>
@@ -1099,9 +1095,10 @@
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F24" s="2"/>
       <c r="I24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">OPENPEPPOL; T10-0019-RichContent_OK.xml; T10;  </v>
+        <v xml:space="preserve">BIIRULES; T10-0015-simpleINV_OK.xml; T10;  </v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1109,7 +1106,7 @@
         <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>45</v>
@@ -1119,15 +1116,15 @@
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">OPENPEPPOL; T10-0020-CrossBorder_OK.xml; T10;  </v>
+        <v xml:space="preserve">OPENPEPPOL; T10-0015-simpleINV_OK.xml; T10;  </v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>45</v>
@@ -1135,9 +1132,8 @@
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">OPENPEPPOL; T10-0021-EUVATNotAppicable_OK.xml; T10;  </v>
+      <c r="I26" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1145,7 +1141,7 @@
         <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>45</v>
@@ -1153,9 +1149,12 @@
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">OPENPEPPOL; T10-0022-FullSpec_OK.xml; T10;  </v>
+        <f>A27 &amp; "; " &amp; B27 &amp; "; " &amp; C27 &amp; "; " &amp; SUBSTITUTE(F27,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G27,CHAR(10), " ")</f>
+        <v>OPENPEPPOL; T10-0016-Valuta-EUR_Warn.xml; T10;  EUGEN-T10-R041</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1163,144 +1162,381 @@
         <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">BIIRULES; T10-0023-ErrorUOM.xml; T10; [BII2-T10-R018]  [BII2-T10-R019] </v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <f>A28 &amp; "; " &amp; B28 &amp; "; " &amp; C28 &amp; "; " &amp; SUBSTITUTE(F28,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G28,CHAR(10), " ")</f>
+        <v xml:space="preserve">BIIRULES; T10-0017-Standard_PEPPOL BIS_Warn.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>51</v>
+        <v>8</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">BIIRULES; T10-0024-ManyErrors.xml; T10; BII2-T10-R030 BII2-T10-R045 BII2-T10-R018 BII2-T10-R019 </v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>OPENPEPPOL; T10-0017-Standard_PEPPOL BIS_Warn.xml; T10;  EUGEN-T10-R040</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="I30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">BIIRULES; T10-0025-CalcErrors.xml; T10; BII2-T10-R051 BII2-T10-R052 BII2-T10-R018 BII2-T10-R019 </v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">BIIRULES; T10-0017-Standard_PEPPOL BIS_Warn.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">BIIRULES; T10-0026-ReverseChargeERR.xml; T10; [BII2-T10-R047]  [BII2-T10-R048]  [BII2-T10-R045] </v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">BIIRULES; T10-0018-OK2VATRatesSimple_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="I32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">BIIRULES; T10-0027-MissVATCategory.xml; T10; BII2-T10-R026 </v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">OPENPEPPOL; T10-0018-OK2VATRatesSimple_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">BIIRULES; T10-0028-MissExemptReasonERR.xml; T10; BII2-T10-R045 </v>
+        <v xml:space="preserve">BIIRULES; T10-0019-RichContent_OK.xml; T10;  </v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0019-RichContent_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0020-CrossBorder_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0020-CrossBorder_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0021-EUVATNotAppicable_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0021-EUVATNotAppicable_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0022-FullSpec_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0022-FullSpec_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0023-ErrorUOM.xml; T10; [BII2-T10-R018]  [BII2-T10-R019] </v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0024-ManyErrors.xml; T10; BII2-T10-R030 BII2-T10-R045 BII2-T10-R018 BII2-T10-R019 </v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0025-CalcErrors.xml; T10; BII2-T10-R051 BII2-T10-R052 BII2-T10-R018 BII2-T10-R019 </v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0026-ReverseChargeERR.xml; T10; [BII2-T10-R047]  [BII2-T10-R048]  [BII2-T10-R045] </v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0027-MissVATCategory.xml; T10; BII2-T10-R026 </v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0028-MissExemptReasonERR.xml; T10; BII2-T10-R045 </v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I34" s="1" t="str">
+      <c r="I47" s="1" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">BIIRULES; T10-0029-MissExemptReasonandVATOnLine.xml; T10; [BII2-T10-R045]  [BII2-T10-R046] </v>
       </c>

--- a/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
+++ b/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="62">
   <si>
     <t xml:space="preserve">File Name </t>
   </si>
@@ -222,9 +222,6 @@
   <si>
     <t>EUGEN-T10-R024
 EUGEN-T10-R043</t>
-  </si>
-  <si>
-    <t>BIIRULES;T10-0016-Valuta-EUR_Warn.xml;T10</t>
   </si>
   <si>
     <t>BII2-T10-R039
@@ -302,9 +299,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kontortema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -342,7 +339,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -414,7 +411,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -591,8 +588,8 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +746,7 @@
         <v>59</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f t="shared" ref="I7:I8" si="1">A7 &amp; "; " &amp; B7 &amp; "; " &amp; C7 &amp; "; " &amp; SUBSTITUTE(F7,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G7,CHAR(10), " ")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">OPENPEPPOL; T10-0005-MultipleSchematronErrors.xml; T10; [OP-T10-R004] </v>
       </c>
     </row>
@@ -768,7 +765,7 @@
       </c>
       <c r="F8" s="2"/>
       <c r="I8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">BIIRULES; T10-0006-MultipleCurrencies_error.xml; T10;  </v>
       </c>
     </row>
@@ -925,7 +922,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1078,7 +1075,7 @@
         <v>22</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f t="shared" ref="I23" si="2">A23 &amp; "; " &amp; B23 &amp; "; " &amp; C23 &amp; "; " &amp; SUBSTITUTE(F23,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G23,CHAR(10), " ")</f>
+        <f t="shared" si="0"/>
         <v>OPENPEPPOL; T10-0014-ErrorRounding_BIC_IBAN.xml; T10;  EUGEN-T10-R004</v>
       </c>
     </row>
@@ -1132,8 +1129,9 @@
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>61</v>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0016-Valuta-EUR_Warn.xml; T10;  </v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1153,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f>A27 &amp; "; " &amp; B27 &amp; "; " &amp; C27 &amp; "; " &amp; SUBSTITUTE(F27,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G27,CHAR(10), " ")</f>
+        <f t="shared" si="0"/>
         <v>OPENPEPPOL; T10-0016-Valuta-EUR_Warn.xml; T10;  EUGEN-T10-R041</v>
       </c>
     </row>
@@ -1171,7 +1169,7 @@
         <v>8</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f>A28 &amp; "; " &amp; B28 &amp; "; " &amp; C28 &amp; "; " &amp; SUBSTITUTE(F28,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(G28,CHAR(10), " ")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">BIIRULES; T10-0017-Standard_PEPPOL BIS_Warn.xml; T10;  </v>
       </c>
     </row>

--- a/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
+++ b/2.0/Documents/T10-Invoice/Tests/ValidationOverviewPEPPOL&BII_T10.xlsx
@@ -1,16 +1,26 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12660"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="145621"/>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="58">
   <si>
     <t xml:space="preserve">File Name </t>
   </si>
   <si>
-    <t xml:space="preserve">XSLT </t>
-  </si>
-  <si>
-    <t>BIIRULES-UBL-T10.xsl</t>
-  </si>
-  <si>
     <t>T10-0001-BII04 minimal invoice_errorVAT.xml</t>
   </si>
   <si>
@@ -26,9 +36,6 @@
     <t>T10-0005-MultipleSchematronErrors.xml</t>
   </si>
   <si>
-    <t>BIIRULES-UBL-T10.xsl OPENPEPPOL-UBL-T10.xsl</t>
-  </si>
-  <si>
     <t>Warnings</t>
   </si>
   <si>
@@ -45,9 +52,6 @@
   </si>
   <si>
     <t>EUGEN-T10-R040</t>
-  </si>
-  <si>
-    <t>OP-T10-R004</t>
   </si>
   <si>
     <t xml:space="preserve">Errors </t>
@@ -109,9 +113,6 @@
   </si>
   <si>
     <t>T10-0025-CalcErrors.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIIRULES-UBL-T10.xsl </t>
   </si>
   <si>
     <t>T10-0026-ReverseChargeERR.xml</t>
@@ -212,5 +213,1692 @@
 BII2-T10-R044
 BII2-T10-R051</t>
   </si>
+  <si>
+    <t>[BII2-T10-R053]
+[BII2-T10-R056]
+[BII2-T10-R032]</t>
+  </si>
 </sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="60.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>A2 &amp; "; " &amp; B2 &amp; "; " &amp; C2 &amp; "; " &amp; SUBSTITUTE(D2,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(E2,CHAR(10), " ")</f>
+        <v xml:space="preserve">BIIRULES; T10-0001-BII04 minimal invoice_errorVAT.xml; T10; [BII2-T10-R026] </v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <f t="shared" ref="G3:G47" si="0">A3 &amp; "; " &amp; B3 &amp; "; " &amp; C3 &amp; "; " &amp; SUBSTITUTE(D3,CHAR(10), " ") &amp; " " &amp; SUBSTITUTE(E3,CHAR(10), " ")</f>
+        <v xml:space="preserve">BIIRULES; T10-0002-minimal VAT invoice_ErrorVAT.xml; T10; [BII2-T10-R030] [BII2-T10-R045] </v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0003-full core data_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0004-example common data_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0005-MultipleSchematronErrors.xml; T10; [CL-T10-R001]  [CL-T10-R002]  [CL-T10-R004]  [CL-T10-R003]  [CL-[T10-R007]  [CL-T10-R006] </v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0005-MultipleSchematronErrors.xml; T10; [OP-T10-R004] </v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0006-MultipleCurrencies_error.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPENPEPPOL; T10-0006-MultipleCurrencies_error.xml; T10; [EUGEN-T10-R026] [EUGEN-T10-R046] [EUGEN-T10-R040]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0007-RoundingAmount_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0007-RoundingAmount_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0009-FullSpecINV.xml; T10; [BII2-T10-R053] [BII2-T10-R056] [BII2-T10-R032] </v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0009-FullSpecINV.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0010-B2C_error.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPENPEPPOL; T10-0010-B2C_error.xml; T10; [OP-T10-R004] [EUGEN-T10-R040]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0011_EmptyElements_errors.xml; T10; BII2-T10-R039 BII2-T10-R044 BII2-T10-R051 </v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPENPEPPOL; T10-0011_EmptyElements_errors.xml; T10; EUGEN-T10-R024 EUGEN-T10-R043 EUGEN-T10-R041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BIIRULES; T10-0012-line_errors.xml; T10;  BII2-T10-R017  BII2-T10-R018  BII2-T10-R019  BII2-T10-R033  CL-T10-R003 EUGEN-T10-R041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPENPEPPOL; T10-0012-line_errors.xml; T10;  EUGEN-T10-R041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0013-negative_invoice_errors.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0013-negative_invoice_errors.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0014-ErrorRounding_BIC_IBAN.xml; T10; [BII2-T10-R042] [BII2-T10-R040] </v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPENPEPPOL; T10-0014-ErrorRounding_BIC_IBAN.xml; T10;  EUGEN-T10-R004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0015-simpleINV_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0015-simpleINV_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0016-Valuta-EUR_Warn.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPENPEPPOL; T10-0016-Valuta-EUR_Warn.xml; T10;  EUGEN-T10-R041</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0017-Standard_PEPPOL BIS_Warn.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>OPENPEPPOL; T10-0017-Standard_PEPPOL BIS_Warn.xml; T10;  EUGEN-T10-R040</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0017-Standard_PEPPOL BIS_Warn.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0018-OK2VATRatesSimple_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0018-OK2VATRatesSimple_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0019-RichContent_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0019-RichContent_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0020-CrossBorder_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0020-CrossBorder_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0021-EUVATNotAppicable_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0021-EUVATNotAppicable_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0022-FullSpec_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">OPENPEPPOL; T10-0022-FullSpec_OK.xml; T10;  </v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0023-ErrorUOM.xml; T10; [BII2-T10-R018]  [BII2-T10-R019] </v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0024-ManyErrors.xml; T10; BII2-T10-R030 BII2-T10-R045 BII2-T10-R018 BII2-T10-R019 </v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0025-CalcErrors.xml; T10; BII2-T10-R051 BII2-T10-R052 BII2-T10-R018 BII2-T10-R019 </v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0026-ReverseChargeERR.xml; T10; [BII2-T10-R047]  [BII2-T10-R048]  [BII2-T10-R045] </v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0027-MissVATCategory.xml; T10; BII2-T10-R026 </v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0028-MissExemptReasonERR.xml; T10; BII2-T10-R045 </v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">BIIRULES; T10-0029-MissExemptReasonandVATOnLine.xml; T10; [BII2-T10-R045]  [BII2-T10-R046] </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>